--- a/Team-Data/2008-09/4-14-2008-09.xlsx
+++ b/Team-Data/2008-09/4-14-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,25 +733,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" t="n">
         <v>34</v>
       </c>
       <c r="G2" t="n">
-        <v>0.58</v>
+        <v>0.575</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
       </c>
       <c r="I2" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J2" t="n">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="K2" t="n">
         <v>0.459</v>
@@ -693,7 +760,7 @@
         <v>7.3</v>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="N2" t="n">
         <v>0.366</v>
@@ -705,16 +772,16 @@
         <v>25.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.737</v>
+        <v>0.738</v>
       </c>
       <c r="R2" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S2" t="n">
         <v>29.4</v>
       </c>
       <c r="T2" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="U2" t="n">
         <v>20.3</v>
@@ -732,25 +799,25 @@
         <v>4.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA2" t="n">
         <v>20.6</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.2</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC2" t="n">
         <v>1.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
@@ -759,10 +826,10 @@
         <v>29</v>
       </c>
       <c r="AI2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>24</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>25</v>
       </c>
       <c r="AK2" t="n">
         <v>10</v>
@@ -771,7 +838,7 @@
         <v>8</v>
       </c>
       <c r="AM2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN2" t="n">
         <v>16</v>
@@ -801,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="AW2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX2" t="n">
         <v>20</v>
@@ -816,7 +883,7 @@
         <v>17</v>
       </c>
       <c r="BB2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-14-2008-09</t>
+          <t>2009-04-14</t>
         </is>
       </c>
     </row>
@@ -863,31 +930,31 @@
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J3" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K3" t="n">
         <v>0.485</v>
       </c>
       <c r="L3" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
         <v>16.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.397</v>
+        <v>0.393</v>
       </c>
       <c r="O3" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="P3" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="R3" t="n">
         <v>10.6</v>
@@ -899,7 +966,7 @@
         <v>42.2</v>
       </c>
       <c r="U3" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V3" t="n">
         <v>15.6</v>
@@ -908,7 +975,7 @@
         <v>7.6</v>
       </c>
       <c r="X3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y3" t="n">
         <v>4.7</v>
@@ -917,16 +984,16 @@
         <v>23.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -941,7 +1008,7 @@
         <v>5</v>
       </c>
       <c r="AI3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ3" t="n">
         <v>28</v>
@@ -950,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM3" t="n">
         <v>21</v>
@@ -962,16 +1029,16 @@
         <v>12</v>
       </c>
       <c r="AP3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AQ3" t="n">
         <v>16</v>
       </c>
       <c r="AR3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
         <v>8</v>
@@ -986,22 +1053,22 @@
         <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB3" t="n">
         <v>11</v>
       </c>
       <c r="BC3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-14-2008-09</t>
+          <t>2009-04-14</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-1</v>
       </c>
       <c r="AD4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
@@ -1183,7 +1250,7 @@
         <v>29</v>
       </c>
       <c r="BC4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-14-2008-09</t>
+          <t>2009-04-14</t>
         </is>
       </c>
     </row>
@@ -1212,31 +1279,31 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E5" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" t="n">
         <v>40</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5</v>
+        <v>0.506</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J5" t="n">
-        <v>83.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K5" t="n">
         <v>0.457</v>
       </c>
       <c r="L5" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>15.8</v>
@@ -1245,13 +1312,13 @@
         <v>0.383</v>
       </c>
       <c r="O5" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="P5" t="n">
-        <v>24.8</v>
+        <v>25.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.797</v>
+        <v>0.796</v>
       </c>
       <c r="R5" t="n">
         <v>11.8</v>
@@ -1281,16 +1348,16 @@
         <v>20.9</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB5" t="n">
         <v>102.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
@@ -1302,7 +1369,7 @@
         <v>15</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
@@ -1323,7 +1390,7 @@
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP5" t="n">
         <v>14</v>
@@ -1341,13 +1408,13 @@
         <v>9</v>
       </c>
       <c r="AU5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV5" t="n">
         <v>20</v>
       </c>
       <c r="AW5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX5" t="n">
         <v>4</v>
@@ -1356,7 +1423,7 @@
         <v>28</v>
       </c>
       <c r="AZ5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA5" t="n">
         <v>14</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-14-2008-09</t>
+          <t>2009-04-14</t>
         </is>
       </c>
     </row>
@@ -1394,25 +1461,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E6" t="n">
         <v>66</v>
       </c>
       <c r="F6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>0.825</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>78.7</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K6" t="n">
         <v>0.468</v>
@@ -1421,16 +1488,16 @@
         <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.394</v>
+        <v>0.392</v>
       </c>
       <c r="O6" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P6" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="Q6" t="n">
         <v>0.758</v>
@@ -1445,34 +1512,34 @@
         <v>42.3</v>
       </c>
       <c r="U6" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V6" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="W6" t="n">
         <v>7.2</v>
       </c>
       <c r="X6" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z6" t="n">
         <v>20.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1490,13 +1557,13 @@
         <v>15</v>
       </c>
       <c r="AJ6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
         <v>6</v>
       </c>
       <c r="AL6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM6" t="n">
         <v>5</v>
@@ -1505,7 +1572,7 @@
         <v>2</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP6" t="n">
         <v>15</v>
@@ -1517,28 +1584,28 @@
         <v>19</v>
       </c>
       <c r="AS6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT6" t="n">
         <v>7</v>
       </c>
       <c r="AU6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY6" t="n">
         <v>6</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AZ6" t="n">
         <v>7</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>6</v>
       </c>
       <c r="BA6" t="n">
         <v>20</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-14-2008-09</t>
+          <t>2009-04-14</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>1.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
         <v>9</v>
@@ -1681,7 +1748,7 @@
         <v>12</v>
       </c>
       <c r="AM7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN7" t="n">
         <v>27</v>
@@ -1699,7 +1766,7 @@
         <v>13</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT7" t="n">
         <v>5</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-14-2008-09</t>
+          <t>2009-04-14</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1848,10 +1915,10 @@
         <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ8" t="n">
         <v>22</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-14-2008-09</t>
+          <t>2009-04-14</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
         <v>17</v>
@@ -2081,10 +2148,10 @@
         <v>19</v>
       </c>
       <c r="AY9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-14-2008-09</t>
+          <t>2009-04-14</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2212,7 +2279,7 @@
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI10" t="n">
         <v>3</v>
@@ -2254,7 +2321,7 @@
         <v>15</v>
       </c>
       <c r="AV10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW10" t="n">
         <v>6</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-14-2008-09</t>
+          <t>2009-04-14</t>
         </is>
       </c>
     </row>
@@ -2382,22 +2449,22 @@
         <v>4.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH11" t="n">
         <v>14</v>
       </c>
       <c r="AI11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ11" t="n">
         <v>21</v>
@@ -2415,7 +2482,7 @@
         <v>8</v>
       </c>
       <c r="AO11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP11" t="n">
         <v>21</v>
@@ -2424,7 +2491,7 @@
         <v>5</v>
       </c>
       <c r="AR11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-14-2008-09</t>
+          <t>2009-04-14</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-1.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
         <v>18</v>
@@ -2576,7 +2643,7 @@
         <v>18</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
         <v>4</v>
@@ -2600,7 +2667,7 @@
         <v>21</v>
       </c>
       <c r="AP12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ12" t="n">
         <v>4</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-14-2008-09</t>
+          <t>2009-04-14</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2770,13 +2837,13 @@
         <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="n">
         <v>16</v>
       </c>
       <c r="AN13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO13" t="n">
         <v>29</v>
@@ -2797,7 +2864,7 @@
         <v>24</v>
       </c>
       <c r="AU13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV13" t="n">
         <v>23</v>
@@ -2812,7 +2879,7 @@
         <v>19</v>
       </c>
       <c r="AZ13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA13" t="n">
         <v>27</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-14-2008-09</t>
+          <t>2009-04-14</t>
         </is>
       </c>
     </row>
@@ -2865,13 +2932,13 @@
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>40.4</v>
+        <v>40.2</v>
       </c>
       <c r="J14" t="n">
-        <v>85.2</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="L14" t="n">
         <v>6.7</v>
@@ -2883,7 +2950,7 @@
         <v>0.359</v>
       </c>
       <c r="O14" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="P14" t="n">
         <v>25.5</v>
@@ -2895,19 +2962,19 @@
         <v>12.4</v>
       </c>
       <c r="S14" t="n">
-        <v>31.4</v>
+        <v>31.7</v>
       </c>
       <c r="T14" t="n">
-        <v>43.9</v>
+        <v>44.1</v>
       </c>
       <c r="U14" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="V14" t="n">
         <v>13.4</v>
       </c>
       <c r="W14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X14" t="n">
         <v>5.1</v>
@@ -2916,19 +2983,19 @@
         <v>4.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.1</v>
+        <v>106.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2940,7 +3007,7 @@
         <v>2</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
         <v>2</v>
@@ -2973,37 +3040,37 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
       </c>
       <c r="AU14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV14" t="n">
         <v>11</v>
       </c>
       <c r="AW14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY14" t="n">
         <v>14</v>
       </c>
       <c r="AZ14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB14" t="n">
         <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-14-2008-09</t>
+          <t>2009-04-14</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3146,7 +3213,7 @@
         <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ15" t="n">
         <v>22</v>
@@ -3167,7 +3234,7 @@
         <v>24</v>
       </c>
       <c r="AW15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX15" t="n">
         <v>18</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-14-2008-09</t>
+          <t>2009-04-14</t>
         </is>
       </c>
     </row>
@@ -3214,46 +3281,46 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" t="n">
         <v>42</v>
       </c>
       <c r="F16" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" t="n">
-        <v>0.519</v>
+        <v>0.525</v>
       </c>
       <c r="H16" t="n">
         <v>48.6</v>
       </c>
       <c r="I16" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J16" t="n">
-        <v>81</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L16" t="n">
         <v>7</v>
       </c>
       <c r="M16" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O16" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P16" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.755</v>
+        <v>0.757</v>
       </c>
       <c r="R16" t="n">
         <v>10</v>
@@ -3262,13 +3329,13 @@
         <v>29.3</v>
       </c>
       <c r="T16" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="U16" t="n">
         <v>20.4</v>
       </c>
       <c r="V16" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="W16" t="n">
         <v>8</v>
@@ -3286,13 +3353,13 @@
         <v>19.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>98.3</v>
+        <v>98.5</v>
       </c>
       <c r="AC16" t="n">
         <v>0.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3304,31 +3371,31 @@
         <v>14</v>
       </c>
       <c r="AH16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ16" t="n">
         <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AL16" t="n">
         <v>11</v>
       </c>
       <c r="AM16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
         <v>27</v>
       </c>
       <c r="AP16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
         <v>23</v>
@@ -3358,13 +3425,13 @@
         <v>5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA16" t="n">
         <v>25</v>
       </c>
       <c r="BB16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC16" t="n">
         <v>14</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-14-2008-09</t>
+          <t>2009-04-14</t>
         </is>
       </c>
     </row>
@@ -3396,43 +3463,43 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E17" t="n">
         <v>34</v>
       </c>
       <c r="F17" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G17" t="n">
-        <v>0.425</v>
+        <v>0.42</v>
       </c>
       <c r="H17" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I17" t="n">
         <v>36.6</v>
       </c>
       <c r="J17" t="n">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L17" t="n">
         <v>6.2</v>
       </c>
       <c r="M17" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O17" t="n">
         <v>19.8</v>
       </c>
       <c r="P17" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q17" t="n">
         <v>0.78</v>
@@ -3441,10 +3508,10 @@
         <v>11.8</v>
       </c>
       <c r="S17" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="T17" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U17" t="n">
         <v>21.9</v>
@@ -3462,7 +3529,7 @@
         <v>4.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="AA17" t="n">
         <v>22.6</v>
@@ -3471,16 +3538,16 @@
         <v>99.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
       <c r="AD17" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
       </c>
       <c r="AF17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG17" t="n">
         <v>20</v>
@@ -3507,10 +3574,10 @@
         <v>18</v>
       </c>
       <c r="AO17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ17" t="n">
         <v>11</v>
@@ -3549,7 +3616,7 @@
         <v>15</v>
       </c>
       <c r="BC17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-14-2008-09</t>
+          <t>2009-04-14</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-4.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-14-2008-09</t>
+          <t>2009-04-14</t>
         </is>
       </c>
     </row>
@@ -3838,19 +3905,19 @@
         <v>-2.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
         <v>20</v>
       </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI19" t="n">
         <v>26</v>
@@ -3862,7 +3929,7 @@
         <v>24</v>
       </c>
       <c r="AL19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM19" t="n">
         <v>3</v>
@@ -3898,7 +3965,7 @@
         <v>24</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY19" t="n">
         <v>14</v>
@@ -3910,7 +3977,7 @@
         <v>18</v>
       </c>
       <c r="BB19" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BC19" t="n">
         <v>21</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-14-2008-09</t>
+          <t>2009-04-14</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>1.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE20" t="n">
         <v>9</v>
@@ -4041,7 +4108,7 @@
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL20" t="n">
         <v>13</v>
@@ -4074,7 +4141,7 @@
         <v>28</v>
       </c>
       <c r="AV20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW20" t="n">
         <v>16</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-14-2008-09</t>
+          <t>2009-04-14</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-3</v>
       </c>
       <c r="AD21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="n">
         <v>23</v>
@@ -4268,7 +4335,7 @@
         <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-14-2008-09</t>
+          <t>2009-04-14</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
         <v>27</v>
@@ -4417,7 +4484,7 @@
         <v>28</v>
       </c>
       <c r="AO22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP22" t="n">
         <v>13</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-14-2008-09</t>
+          <t>2009-04-14</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>6.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,7 +4645,7 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI23" t="n">
         <v>27</v>
@@ -4587,7 +4654,7 @@
         <v>26</v>
       </c>
       <c r="AK23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
         <v>2</v>
@@ -4596,7 +4663,7 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO23" t="n">
         <v>10</v>
@@ -4626,7 +4693,7 @@
         <v>21</v>
       </c>
       <c r="AX23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY23" t="n">
         <v>2</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-14-2008-09</t>
+          <t>2009-04-14</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" t="n">
         <v>40</v>
       </c>
       <c r="F24" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G24" t="n">
-        <v>0.494</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
@@ -4688,7 +4755,7 @@
         <v>36.5</v>
       </c>
       <c r="J24" t="n">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="K24" t="n">
         <v>0.458</v>
@@ -4700,25 +4767,25 @@
         <v>13.1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.318</v>
+        <v>0.319</v>
       </c>
       <c r="O24" t="n">
         <v>20</v>
       </c>
       <c r="P24" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.746</v>
+        <v>0.745</v>
       </c>
       <c r="R24" t="n">
         <v>12.7</v>
       </c>
       <c r="S24" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="T24" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U24" t="n">
         <v>20.1</v>
@@ -4730,7 +4797,7 @@
         <v>8</v>
       </c>
       <c r="X24" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y24" t="n">
         <v>4.9</v>
@@ -4748,13 +4815,13 @@
         <v>0.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="AE24" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF24" t="n">
         <v>15</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>16</v>
       </c>
       <c r="AG24" t="n">
         <v>16</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-14-2008-09</t>
+          <t>2009-04-14</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>1.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4942,7 +5009,7 @@
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
         <v>1</v>
@@ -4981,7 +5048,7 @@
         <v>14</v>
       </c>
       <c r="AU25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV25" t="n">
         <v>29</v>
@@ -4996,7 +5063,7 @@
         <v>10</v>
       </c>
       <c r="AZ25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA25" t="n">
         <v>4</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-14-2008-09</t>
+          <t>2009-04-14</t>
         </is>
       </c>
     </row>
@@ -5034,28 +5101,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E26" t="n">
         <v>53</v>
       </c>
       <c r="F26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G26" t="n">
-        <v>0.663</v>
+        <v>0.654</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J26" t="n">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.466</v>
+        <v>0.464</v>
       </c>
       <c r="L26" t="n">
         <v>7.2</v>
@@ -5067,22 +5134,22 @@
         <v>0.38</v>
       </c>
       <c r="O26" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="P26" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.767</v>
+        <v>0.765</v>
       </c>
       <c r="R26" t="n">
         <v>13</v>
       </c>
       <c r="S26" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="T26" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U26" t="n">
         <v>20.2</v>
@@ -5103,22 +5170,22 @@
         <v>20.4</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
         <v>6</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG26" t="n">
         <v>6</v>
@@ -5133,7 +5200,7 @@
         <v>23</v>
       </c>
       <c r="AK26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL26" t="n">
         <v>9</v>
@@ -5142,16 +5209,16 @@
         <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AP26" t="n">
         <v>16</v>
       </c>
       <c r="AQ26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5163,13 +5230,13 @@
         <v>13</v>
       </c>
       <c r="AU26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV26" t="n">
         <v>8</v>
       </c>
       <c r="AW26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX26" t="n">
         <v>13</v>
@@ -5178,7 +5245,7 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA26" t="n">
         <v>11</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-14-2008-09</t>
+          <t>2009-04-14</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-9</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-14-2008-09</t>
+          <t>2009-04-14</t>
         </is>
       </c>
     </row>
@@ -5476,34 +5543,34 @@
         <v>3.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
       </c>
       <c r="AF28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH28" t="n">
         <v>6</v>
       </c>
       <c r="AI28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ28" t="n">
         <v>20</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
         <v>6</v>
       </c>
       <c r="AM28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-14-2008-09</t>
+          <t>2009-04-14</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-3</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE29" t="n">
         <v>22</v>
@@ -5685,13 +5752,13 @@
         <v>24</v>
       </c>
       <c r="AM29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN29" t="n">
         <v>13</v>
       </c>
       <c r="AO29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP29" t="n">
         <v>25</v>
@@ -5718,10 +5785,10 @@
         <v>27</v>
       </c>
       <c r="AX29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ29" t="n">
         <v>3</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-14-2008-09</t>
+          <t>2009-04-14</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E30" t="n">
         <v>48</v>
       </c>
       <c r="F30" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G30" t="n">
-        <v>0.585</v>
+        <v>0.593</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
@@ -5783,7 +5850,7 @@
         <v>80.8</v>
       </c>
       <c r="K30" t="n">
-        <v>0.475</v>
+        <v>0.474</v>
       </c>
       <c r="L30" t="n">
         <v>4.8</v>
@@ -5792,40 +5859,40 @@
         <v>13.7</v>
       </c>
       <c r="N30" t="n">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
       <c r="O30" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="P30" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.771</v>
+        <v>0.772</v>
       </c>
       <c r="R30" t="n">
         <v>11.5</v>
       </c>
       <c r="S30" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T30" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U30" t="n">
         <v>24.7</v>
       </c>
       <c r="V30" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W30" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X30" t="n">
         <v>4.6</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z30" t="n">
         <v>22.3</v>
@@ -5834,10 +5901,10 @@
         <v>24</v>
       </c>
       <c r="AB30" t="n">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -5852,7 +5919,7 @@
         <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AI30" t="n">
         <v>6</v>
@@ -5864,7 +5931,7 @@
         <v>3</v>
       </c>
       <c r="AL30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM30" t="n">
         <v>26</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-14-2008-09</t>
+          <t>2009-04-14</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-7.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6034,7 +6101,7 @@
         <v>28</v>
       </c>
       <c r="AH31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI31" t="n">
         <v>18</v>
@@ -6046,7 +6113,7 @@
         <v>23</v>
       </c>
       <c r="AL31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM31" t="n">
         <v>25</v>
@@ -6061,7 +6128,7 @@
         <v>20</v>
       </c>
       <c r="AQ31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR31" t="n">
         <v>8</v>
@@ -6088,10 +6155,10 @@
         <v>22</v>
       </c>
       <c r="AZ31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB31" t="n">
         <v>25</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-14-2008-09</t>
+          <t>2009-04-14</t>
         </is>
       </c>
     </row>
